--- a/Data Dummy.xlsx
+++ b/Data Dummy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/384e753b9cf9534d/Documents/KERJA PRAKTEK SIG/DASHBOARD_UPDATE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{ACFC072A-6AC7-408C-B7DE-D76205203CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3909BAA6-CB87-4334-8466-BB2DF0812A29}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{ACFC072A-6AC7-408C-B7DE-D76205203CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC99D2C9-A144-4F91-B9E2-C7A8B642BCF6}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="28">
   <si>
     <t>SiO2</t>
   </si>
@@ -100,6 +100,24 @@
   </si>
   <si>
     <t>Devi</t>
+  </si>
+  <si>
+    <t>Setting Time Awal</t>
+  </si>
+  <si>
+    <t>Setting Time Akhir</t>
+  </si>
+  <si>
+    <t>Kuat Tekan 1 Hari</t>
+  </si>
+  <si>
+    <t>Kuat Tekan 3 Hari</t>
+  </si>
+  <si>
+    <t>Kuat Tekan 7 Hari</t>
+  </si>
+  <si>
+    <t>Kuat Tekan 28 Hari</t>
   </si>
 </sst>
 </file>
@@ -169,10 +187,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -438,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T196"/>
+  <dimension ref="A1:Z196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:T1048576"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection sqref="A1:Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -449,7 +463,7 @@
     <col min="1" max="1" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -510,8 +524,26 @@
       <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>45292</v>
       </c>
@@ -572,8 +604,26 @@
       <c r="T2" s="3">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U2">
+        <v>203.8727368421053</v>
+      </c>
+      <c r="V2">
+        <v>263.29000000000002</v>
+      </c>
+      <c r="W2">
+        <v>356.49</v>
+      </c>
+      <c r="X2">
+        <v>456.01</v>
+      </c>
+      <c r="Y2">
+        <v>121.65</v>
+      </c>
+      <c r="Z2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>45294</v>
       </c>
@@ -634,8 +684,26 @@
       <c r="T3" s="3">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U3">
+        <v>157.03</v>
+      </c>
+      <c r="V3">
+        <v>292.25</v>
+      </c>
+      <c r="W3">
+        <v>400.95</v>
+      </c>
+      <c r="X3">
+        <v>538.61</v>
+      </c>
+      <c r="Y3">
+        <v>121.3</v>
+      </c>
+      <c r="Z3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>45296</v>
       </c>
@@ -696,8 +764,26 @@
       <c r="T4" s="3">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U4">
+        <v>160.69999999999999</v>
+      </c>
+      <c r="V4">
+        <v>290.20999999999998</v>
+      </c>
+      <c r="W4">
+        <v>411.14</v>
+      </c>
+      <c r="X4">
+        <v>524.53</v>
+      </c>
+      <c r="Y4">
+        <v>107</v>
+      </c>
+      <c r="Z4">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>45298</v>
       </c>
@@ -758,8 +844,26 @@
       <c r="T5" s="3">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U5">
+        <v>146.02000000000001</v>
+      </c>
+      <c r="V5">
+        <v>285.11</v>
+      </c>
+      <c r="W5">
+        <v>380.14</v>
+      </c>
+      <c r="X5">
+        <v>469.27</v>
+      </c>
+      <c r="Y5">
+        <v>99</v>
+      </c>
+      <c r="Z5">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>45300</v>
       </c>
@@ -820,8 +924,26 @@
       <c r="T6" s="3">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U6">
+        <v>157.03</v>
+      </c>
+      <c r="V6">
+        <v>280.83</v>
+      </c>
+      <c r="W6">
+        <v>356.9</v>
+      </c>
+      <c r="X6">
+        <v>505.57</v>
+      </c>
+      <c r="Y6">
+        <v>98</v>
+      </c>
+      <c r="Z6">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>45302</v>
       </c>
@@ -882,8 +1004,26 @@
       <c r="T7" s="3">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U7">
+        <v>156.63</v>
+      </c>
+      <c r="V7">
+        <v>276.54000000000002</v>
+      </c>
+      <c r="W7">
+        <v>372.39</v>
+      </c>
+      <c r="X7">
+        <v>487.62</v>
+      </c>
+      <c r="Y7">
+        <v>126.43</v>
+      </c>
+      <c r="Z7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>45304</v>
       </c>
@@ -944,8 +1084,26 @@
       <c r="T8" s="3">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U8">
+        <v>155.81</v>
+      </c>
+      <c r="V8">
+        <v>285.31</v>
+      </c>
+      <c r="W8">
+        <v>376.88</v>
+      </c>
+      <c r="X8">
+        <v>482.32</v>
+      </c>
+      <c r="Y8">
+        <v>118.67</v>
+      </c>
+      <c r="Z8">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>45306</v>
       </c>
@@ -1006,8 +1164,26 @@
       <c r="T9" s="3">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U9">
+        <v>152.55000000000001</v>
+      </c>
+      <c r="V9">
+        <v>300.2</v>
+      </c>
+      <c r="W9">
+        <v>381.37</v>
+      </c>
+      <c r="X9">
+        <v>475.59</v>
+      </c>
+      <c r="Y9">
+        <v>126.62</v>
+      </c>
+      <c r="Z9">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>45308</v>
       </c>
@@ -1068,8 +1244,26 @@
       <c r="T10" s="3">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U10">
+        <v>134.6</v>
+      </c>
+      <c r="V10">
+        <v>271.64999999999998</v>
+      </c>
+      <c r="W10">
+        <v>411.14</v>
+      </c>
+      <c r="X10">
+        <v>460.9</v>
+      </c>
+      <c r="Y10">
+        <v>128.71</v>
+      </c>
+      <c r="Z10">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>45310</v>
       </c>
@@ -1130,8 +1324,26 @@
       <c r="T11" s="3">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U11">
+        <v>139.9</v>
+      </c>
+      <c r="V11">
+        <v>265.73</v>
+      </c>
+      <c r="W11">
+        <v>327.52999999999997</v>
+      </c>
+      <c r="X11">
+        <v>448.46</v>
+      </c>
+      <c r="Y11">
+        <v>151</v>
+      </c>
+      <c r="Z11">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>45312</v>
       </c>
@@ -1192,8 +1404,26 @@
       <c r="T12" s="3">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U12">
+        <v>203.8727368421053</v>
+      </c>
+      <c r="V12">
+        <v>266.35000000000002</v>
+      </c>
+      <c r="W12">
+        <v>360.57</v>
+      </c>
+      <c r="X12">
+        <v>485.38</v>
+      </c>
+      <c r="Y12">
+        <v>109.35</v>
+      </c>
+      <c r="Z12">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>45314</v>
       </c>
@@ -1254,8 +1484,26 @@
       <c r="T13" s="3">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U13">
+        <v>143.57</v>
+      </c>
+      <c r="V13">
+        <v>285.11</v>
+      </c>
+      <c r="W13">
+        <v>380.96</v>
+      </c>
+      <c r="X13">
+        <v>538.61</v>
+      </c>
+      <c r="Y13">
+        <v>98</v>
+      </c>
+      <c r="Z13">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>45316</v>
       </c>
@@ -1316,8 +1564,26 @@
       <c r="T14" s="3">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U14">
+        <v>192.11</v>
+      </c>
+      <c r="V14">
+        <v>336.09</v>
+      </c>
+      <c r="W14">
+        <v>391.16</v>
+      </c>
+      <c r="X14">
+        <v>527.59</v>
+      </c>
+      <c r="Y14">
+        <v>88.57</v>
+      </c>
+      <c r="Z14">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>45318</v>
       </c>
@@ -1378,8 +1644,26 @@
       <c r="T15" s="3">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U15">
+        <v>222.7</v>
+      </c>
+      <c r="V15">
+        <v>381.57</v>
+      </c>
+      <c r="W15">
+        <v>437.66</v>
+      </c>
+      <c r="X15">
+        <v>568.58000000000004</v>
+      </c>
+      <c r="Y15">
+        <v>113.65</v>
+      </c>
+      <c r="Z15">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>45320</v>
       </c>
@@ -1440,8 +1724,26 @@
       <c r="T16" s="3">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U16">
+        <v>220.26</v>
+      </c>
+      <c r="V16">
+        <v>380.96</v>
+      </c>
+      <c r="W16">
+        <v>466.21</v>
+      </c>
+      <c r="X16">
+        <v>579.19000000000005</v>
+      </c>
+      <c r="Y16">
+        <v>84</v>
+      </c>
+      <c r="Z16">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>45322</v>
       </c>
@@ -1502,8 +1804,26 @@
       <c r="T17" s="3">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U17">
+        <v>187.22</v>
+      </c>
+      <c r="V17">
+        <v>362.61</v>
+      </c>
+      <c r="W17">
+        <v>445.81</v>
+      </c>
+      <c r="X17">
+        <v>542.07000000000005</v>
+      </c>
+      <c r="Y17">
+        <v>89.26</v>
+      </c>
+      <c r="Z17">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>45324</v>
       </c>
@@ -1564,8 +1884,26 @@
       <c r="T18" s="3">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U18">
+        <v>190.89</v>
+      </c>
+      <c r="V18">
+        <v>350.57</v>
+      </c>
+      <c r="W18">
+        <v>448.67</v>
+      </c>
+      <c r="X18">
+        <v>545.74</v>
+      </c>
+      <c r="Y18">
+        <v>106.17</v>
+      </c>
+      <c r="Z18">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>45326</v>
       </c>
@@ -1626,8 +1964,26 @@
       <c r="T19" s="3">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U19">
+        <v>212.91</v>
+      </c>
+      <c r="V19">
+        <v>396.46</v>
+      </c>
+      <c r="W19">
+        <v>486.6</v>
+      </c>
+      <c r="X19">
+        <v>587.35</v>
+      </c>
+      <c r="Y19">
+        <v>106.24</v>
+      </c>
+      <c r="Z19">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>45328</v>
       </c>
@@ -1688,8 +2044,26 @@
       <c r="T20" s="3">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U20">
+        <v>206.39</v>
+      </c>
+      <c r="V20">
+        <v>373.41</v>
+      </c>
+      <c r="W20">
+        <v>430.58172774869109</v>
+      </c>
+      <c r="X20">
+        <v>536.16</v>
+      </c>
+      <c r="Y20">
+        <v>97</v>
+      </c>
+      <c r="Z20">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>45330</v>
       </c>
@@ -1750,8 +2124,26 @@
       <c r="T21" s="3">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U21">
+        <v>194.97</v>
+      </c>
+      <c r="V21">
+        <v>363.01</v>
+      </c>
+      <c r="W21">
+        <v>411.14</v>
+      </c>
+      <c r="X21">
+        <v>520.25</v>
+      </c>
+      <c r="Y21">
+        <v>97</v>
+      </c>
+      <c r="Z21">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>45332</v>
       </c>
@@ -1812,8 +2204,26 @@
       <c r="T22" s="3">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U22">
+        <v>194.15</v>
+      </c>
+      <c r="V22">
+        <v>351.8</v>
+      </c>
+      <c r="W22">
+        <v>446.63</v>
+      </c>
+      <c r="X22">
+        <v>530.65</v>
+      </c>
+      <c r="Y22">
+        <v>110.86</v>
+      </c>
+      <c r="Z22">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>45334</v>
       </c>
@@ -1874,8 +2284,26 @@
       <c r="T23" s="3">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U23">
+        <v>183.14</v>
+      </c>
+      <c r="V23">
+        <v>333.03</v>
+      </c>
+      <c r="W23">
+        <v>399.31</v>
+      </c>
+      <c r="X23">
+        <v>521.88</v>
+      </c>
+      <c r="Y23">
+        <v>107.64</v>
+      </c>
+      <c r="Z23">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>45336</v>
       </c>
@@ -1936,8 +2364,26 @@
       <c r="T24" s="3">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U24">
+        <v>173.35</v>
+      </c>
+      <c r="V24">
+        <v>296.52999999999997</v>
+      </c>
+      <c r="W24">
+        <v>391.97</v>
+      </c>
+      <c r="X24">
+        <v>502.71</v>
+      </c>
+      <c r="Y24">
+        <v>100.11</v>
+      </c>
+      <c r="Z24">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>45338</v>
       </c>
@@ -1998,8 +2444,26 @@
       <c r="T25" s="3">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U25">
+        <v>193.34</v>
+      </c>
+      <c r="V25">
+        <v>346.29</v>
+      </c>
+      <c r="W25">
+        <v>418.08</v>
+      </c>
+      <c r="X25">
+        <v>537.79</v>
+      </c>
+      <c r="Y25">
+        <v>105</v>
+      </c>
+      <c r="Z25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>45340</v>
       </c>
@@ -2060,8 +2524,26 @@
       <c r="T26" s="3">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U26">
+        <v>197.41</v>
+      </c>
+      <c r="V26">
+        <v>366.07</v>
+      </c>
+      <c r="W26">
+        <v>459.27</v>
+      </c>
+      <c r="X26">
+        <v>545.74</v>
+      </c>
+      <c r="Y26">
+        <v>96.66</v>
+      </c>
+      <c r="Z26">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>45342</v>
       </c>
@@ -2122,8 +2604,26 @@
       <c r="T27" s="3">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U27">
+        <v>225.56</v>
+      </c>
+      <c r="V27">
+        <v>348.13</v>
+      </c>
+      <c r="W27">
+        <v>442.55</v>
+      </c>
+      <c r="X27">
+        <v>538.61</v>
+      </c>
+      <c r="Y27">
+        <v>97</v>
+      </c>
+      <c r="Z27">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>45344</v>
       </c>
@@ -2184,8 +2684,26 @@
       <c r="T28" s="3">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U28">
+        <v>172.53</v>
+      </c>
+      <c r="V28">
+        <v>331.2</v>
+      </c>
+      <c r="W28">
+        <v>392.79</v>
+      </c>
+      <c r="X28">
+        <v>462.74</v>
+      </c>
+      <c r="Y28">
+        <v>109.82</v>
+      </c>
+      <c r="Z28">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>45346</v>
       </c>
@@ -2246,8 +2764,26 @@
       <c r="T29" s="3">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U29">
+        <v>156.63</v>
+      </c>
+      <c r="V29">
+        <v>328.34</v>
+      </c>
+      <c r="W29">
+        <v>378.1</v>
+      </c>
+      <c r="X29">
+        <v>493.94</v>
+      </c>
+      <c r="Y29">
+        <v>111</v>
+      </c>
+      <c r="Z29">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>45348</v>
       </c>
@@ -2308,8 +2844,26 @@
       <c r="T30" s="3">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U30">
+        <v>167.23</v>
+      </c>
+      <c r="V30">
+        <v>315.29000000000002</v>
+      </c>
+      <c r="W30">
+        <v>390.75</v>
+      </c>
+      <c r="X30">
+        <v>524.13</v>
+      </c>
+      <c r="Y30">
+        <v>99</v>
+      </c>
+      <c r="Z30">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>45350</v>
       </c>
@@ -2370,8 +2924,26 @@
       <c r="T31" s="3">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U31">
+        <v>174.16</v>
+      </c>
+      <c r="V31">
+        <v>315.89999999999998</v>
+      </c>
+      <c r="W31">
+        <v>380.14</v>
+      </c>
+      <c r="X31">
+        <v>508.63</v>
+      </c>
+      <c r="Y31">
+        <v>144.21</v>
+      </c>
+      <c r="Z31">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>45352</v>
       </c>
@@ -2432,8 +3004,26 @@
       <c r="T32" s="3">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U32">
+        <v>161.11000000000001</v>
+      </c>
+      <c r="V32">
+        <v>328.55</v>
+      </c>
+      <c r="W32">
+        <v>418.89</v>
+      </c>
+      <c r="X32">
+        <v>510.87</v>
+      </c>
+      <c r="Y32">
+        <v>95</v>
+      </c>
+      <c r="Z32">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>45354</v>
       </c>
@@ -2494,8 +3084,26 @@
       <c r="T33" s="3">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U33">
+        <v>177.84</v>
+      </c>
+      <c r="V33">
+        <v>360.77</v>
+      </c>
+      <c r="W33">
+        <v>434.39</v>
+      </c>
+      <c r="X33">
+        <v>544.11</v>
+      </c>
+      <c r="Y33">
+        <v>93</v>
+      </c>
+      <c r="Z33">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>45356</v>
       </c>
@@ -2556,8 +3164,26 @@
       <c r="T34" s="3">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U34">
+        <v>172.94</v>
+      </c>
+      <c r="V34">
+        <v>328.75</v>
+      </c>
+      <c r="W34">
+        <v>384.22</v>
+      </c>
+      <c r="X34">
+        <v>512.71</v>
+      </c>
+      <c r="Y34">
+        <v>107</v>
+      </c>
+      <c r="Z34">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>45358</v>
       </c>
@@ -2618,8 +3244,26 @@
       <c r="T35" s="3">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U35">
+        <v>170.49</v>
+      </c>
+      <c r="V35">
+        <v>326.10000000000002</v>
+      </c>
+      <c r="W35">
+        <v>387.49</v>
+      </c>
+      <c r="X35">
+        <v>509.24</v>
+      </c>
+      <c r="Y35">
+        <v>104.81</v>
+      </c>
+      <c r="Z35">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>45360</v>
       </c>
@@ -2680,8 +3324,26 @@
       <c r="T36" s="3">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U36">
+        <v>166.01</v>
+      </c>
+      <c r="V36">
+        <v>299.58999999999997</v>
+      </c>
+      <c r="W36">
+        <v>394.42</v>
+      </c>
+      <c r="X36">
+        <v>511.07</v>
+      </c>
+      <c r="Y36">
+        <v>98</v>
+      </c>
+      <c r="Z36">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>45362</v>
       </c>
@@ -2742,8 +3404,26 @@
       <c r="T37" s="3">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U37">
+        <v>203.8727368421053</v>
+      </c>
+      <c r="V37">
+        <v>316.92</v>
+      </c>
+      <c r="W37">
+        <v>405.84</v>
+      </c>
+      <c r="X37">
+        <v>497.41</v>
+      </c>
+      <c r="Y37">
+        <v>98</v>
+      </c>
+      <c r="Z37">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>45364</v>
       </c>
@@ -2804,8 +3484,26 @@
       <c r="T38" s="3">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U38">
+        <v>167.23</v>
+      </c>
+      <c r="V38">
+        <v>322.63</v>
+      </c>
+      <c r="W38">
+        <v>369.95</v>
+      </c>
+      <c r="X38">
+        <v>510.87</v>
+      </c>
+      <c r="Y38">
+        <v>102.28</v>
+      </c>
+      <c r="Z38">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>45366</v>
       </c>
@@ -2866,8 +3564,26 @@
       <c r="T39" s="3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U39">
+        <v>167.64</v>
+      </c>
+      <c r="V39">
+        <v>315.89999999999998</v>
+      </c>
+      <c r="W39">
+        <v>400.95</v>
+      </c>
+      <c r="X39">
+        <v>504.75</v>
+      </c>
+      <c r="Y39">
+        <v>127.79</v>
+      </c>
+      <c r="Z39">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>45368</v>
       </c>
@@ -2928,8 +3644,26 @@
       <c r="T40" s="3">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U40">
+        <v>177.02</v>
+      </c>
+      <c r="V40">
+        <v>320.8</v>
+      </c>
+      <c r="W40">
+        <v>426.64</v>
+      </c>
+      <c r="X40">
+        <v>512.5</v>
+      </c>
+      <c r="Y40">
+        <v>92</v>
+      </c>
+      <c r="Z40">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>45370</v>
       </c>
@@ -2990,8 +3724,26 @@
       <c r="T41" s="3">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U41">
+        <v>178.65</v>
+      </c>
+      <c r="V41">
+        <v>340.58</v>
+      </c>
+      <c r="W41">
+        <v>385.85</v>
+      </c>
+      <c r="X41">
+        <v>545.34</v>
+      </c>
+      <c r="Y41">
+        <v>106.47</v>
+      </c>
+      <c r="Z41">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>45372</v>
       </c>
@@ -3052,8 +3804,26 @@
       <c r="T42" s="3">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U42">
+        <v>200.68</v>
+      </c>
+      <c r="V42">
+        <v>320.19</v>
+      </c>
+      <c r="W42">
+        <v>398.91</v>
+      </c>
+      <c r="X42">
+        <v>520.25</v>
+      </c>
+      <c r="Y42">
+        <v>98</v>
+      </c>
+      <c r="Z42">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>45374</v>
       </c>
@@ -3114,8 +3884,26 @@
       <c r="T43" s="3">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U43">
+        <v>167.64</v>
+      </c>
+      <c r="V43">
+        <v>334.46</v>
+      </c>
+      <c r="W43">
+        <v>411.14</v>
+      </c>
+      <c r="X43">
+        <v>509.44</v>
+      </c>
+      <c r="Y43">
+        <v>110.33</v>
+      </c>
+      <c r="Z43">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>45376</v>
       </c>
@@ -3176,8 +3964,26 @@
       <c r="T44" s="3">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U44">
+        <v>176.2</v>
+      </c>
+      <c r="V44">
+        <v>323.45</v>
+      </c>
+      <c r="W44">
+        <v>419.3</v>
+      </c>
+      <c r="X44">
+        <v>516.58000000000004</v>
+      </c>
+      <c r="Y44">
+        <v>94</v>
+      </c>
+      <c r="Z44">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>45378</v>
       </c>
@@ -3238,8 +4044,26 @@
       <c r="T45" s="3">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U45">
+        <v>153.36000000000001</v>
+      </c>
+      <c r="V45">
+        <v>317.33</v>
+      </c>
+      <c r="W45">
+        <v>379.74</v>
+      </c>
+      <c r="X45">
+        <v>512.5</v>
+      </c>
+      <c r="Y45">
+        <v>130.41999999999999</v>
+      </c>
+      <c r="Z45">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>45380</v>
       </c>
@@ -3300,8 +4124,26 @@
       <c r="T46" s="3">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U46">
+        <v>189.66</v>
+      </c>
+      <c r="V46">
+        <v>272.87</v>
+      </c>
+      <c r="W46">
+        <v>371.58</v>
+      </c>
+      <c r="X46">
+        <v>544.92999999999995</v>
+      </c>
+      <c r="Y46">
+        <v>98</v>
+      </c>
+      <c r="Z46">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>45382</v>
       </c>
@@ -3362,8 +4204,26 @@
       <c r="T47" s="3">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U47">
+        <v>194.97</v>
+      </c>
+      <c r="V47">
+        <v>344.66</v>
+      </c>
+      <c r="W47">
+        <v>393.6</v>
+      </c>
+      <c r="X47">
+        <v>527.79999999999995</v>
+      </c>
+      <c r="Y47">
+        <v>93.96</v>
+      </c>
+      <c r="Z47">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>45384</v>
       </c>
@@ -3424,8 +4284,26 @@
       <c r="T48" s="3">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U48">
+        <v>185.18</v>
+      </c>
+      <c r="V48">
+        <v>338.54</v>
+      </c>
+      <c r="W48">
+        <v>401.76</v>
+      </c>
+      <c r="X48">
+        <v>544.92999999999995</v>
+      </c>
+      <c r="Y48">
+        <v>104</v>
+      </c>
+      <c r="Z48">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>45386</v>
       </c>
@@ -3486,8 +4364,26 @@
       <c r="T49" s="3">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U49">
+        <v>196.19</v>
+      </c>
+      <c r="V49">
+        <v>331.2</v>
+      </c>
+      <c r="W49">
+        <v>418.48</v>
+      </c>
+      <c r="X49">
+        <v>550.03</v>
+      </c>
+      <c r="Y49">
+        <v>107</v>
+      </c>
+      <c r="Z49">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>45388</v>
       </c>
@@ -3548,8 +4444,26 @@
       <c r="T50" s="3">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U50">
+        <v>185.99</v>
+      </c>
+      <c r="V50">
+        <v>351.8</v>
+      </c>
+      <c r="W50">
+        <v>441.73</v>
+      </c>
+      <c r="X50">
+        <v>525.15</v>
+      </c>
+      <c r="Y50">
+        <v>91</v>
+      </c>
+      <c r="Z50">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>45390</v>
       </c>
@@ -3610,8 +4524,26 @@
       <c r="T51" s="3">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U51">
+        <v>207.61</v>
+      </c>
+      <c r="V51">
+        <v>339.56</v>
+      </c>
+      <c r="W51">
+        <v>422.97</v>
+      </c>
+      <c r="X51">
+        <v>535.95000000000005</v>
+      </c>
+      <c r="Y51">
+        <v>117</v>
+      </c>
+      <c r="Z51">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>45392</v>
       </c>
@@ -3672,8 +4604,26 @@
       <c r="T52" s="3">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U52">
+        <v>186.4</v>
+      </c>
+      <c r="V52">
+        <v>328.34</v>
+      </c>
+      <c r="W52">
+        <v>425.01</v>
+      </c>
+      <c r="X52">
+        <v>508.42</v>
+      </c>
+      <c r="Y52">
+        <v>110</v>
+      </c>
+      <c r="Z52">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>45394</v>
       </c>
@@ -3734,8 +4684,26 @@
       <c r="T53" s="3">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U53">
+        <v>181.1</v>
+      </c>
+      <c r="V53">
+        <v>341.19</v>
+      </c>
+      <c r="W53">
+        <v>445.81</v>
+      </c>
+      <c r="X53">
+        <v>543.09</v>
+      </c>
+      <c r="Y53">
+        <v>91</v>
+      </c>
+      <c r="Z53">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>45396</v>
       </c>
@@ -3796,8 +4764,26 @@
       <c r="T54" s="3">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U54">
+        <v>161.93</v>
+      </c>
+      <c r="V54">
+        <v>337.52</v>
+      </c>
+      <c r="W54">
+        <v>425.01</v>
+      </c>
+      <c r="X54">
+        <v>491.7</v>
+      </c>
+      <c r="Y54">
+        <v>103.67</v>
+      </c>
+      <c r="Z54">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>45398</v>
       </c>
@@ -3858,8 +4844,26 @@
       <c r="T55" s="3">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U55">
+        <v>186.4</v>
+      </c>
+      <c r="V55">
+        <v>350.57</v>
+      </c>
+      <c r="W55">
+        <v>413.18</v>
+      </c>
+      <c r="X55">
+        <v>543.09</v>
+      </c>
+      <c r="Y55">
+        <v>97</v>
+      </c>
+      <c r="Z55">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>45400</v>
       </c>
@@ -3920,8 +4924,26 @@
       <c r="T56" s="3">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U56">
+        <v>172.13</v>
+      </c>
+      <c r="V56">
+        <v>344.66</v>
+      </c>
+      <c r="W56">
+        <v>420.12</v>
+      </c>
+      <c r="X56">
+        <v>538.80999999999995</v>
+      </c>
+      <c r="Y56">
+        <v>109</v>
+      </c>
+      <c r="Z56">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>45402</v>
       </c>
@@ -3982,8 +5004,26 @@
       <c r="T57" s="3">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U57">
+        <v>168.45</v>
+      </c>
+      <c r="V57">
+        <v>335.28</v>
+      </c>
+      <c r="W57">
+        <v>446.22</v>
+      </c>
+      <c r="X57">
+        <v>563.49</v>
+      </c>
+      <c r="Y57">
+        <v>119.87</v>
+      </c>
+      <c r="Z57">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>45404</v>
       </c>
@@ -4044,8 +5084,26 @@
       <c r="T58" s="3">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U58">
+        <v>174.16</v>
+      </c>
+      <c r="V58">
+        <v>343.84</v>
+      </c>
+      <c r="W58">
+        <v>451.12</v>
+      </c>
+      <c r="X58">
+        <v>579.6</v>
+      </c>
+      <c r="Y58">
+        <v>96.66</v>
+      </c>
+      <c r="Z58">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>45406</v>
       </c>
@@ -4106,8 +5164,26 @@
       <c r="T59" s="3">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U59">
+        <v>162.74</v>
+      </c>
+      <c r="V59">
+        <v>350.98</v>
+      </c>
+      <c r="W59">
+        <v>436.84</v>
+      </c>
+      <c r="X59">
+        <v>529.63</v>
+      </c>
+      <c r="Y59">
+        <v>91</v>
+      </c>
+      <c r="Z59">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>45408</v>
       </c>
@@ -4168,8 +5244,26 @@
       <c r="T60" s="3">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U60">
+        <v>182.32</v>
+      </c>
+      <c r="V60">
+        <v>345.68</v>
+      </c>
+      <c r="W60">
+        <v>430.31</v>
+      </c>
+      <c r="X60">
+        <v>543.91</v>
+      </c>
+      <c r="Y60">
+        <v>101.14</v>
+      </c>
+      <c r="Z60">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>45410</v>
       </c>
@@ -4230,8 +5324,26 @@
       <c r="T61" s="3">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U61">
+        <v>172.94</v>
+      </c>
+      <c r="V61">
+        <v>336.09</v>
+      </c>
+      <c r="W61">
+        <v>413.18</v>
+      </c>
+      <c r="X61">
+        <v>521.67999999999995</v>
+      </c>
+      <c r="Y61">
+        <v>93</v>
+      </c>
+      <c r="Z61">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>45412</v>
       </c>
@@ -4292,8 +5404,26 @@
       <c r="T62" s="3">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U62">
+        <v>151.32</v>
+      </c>
+      <c r="V62">
+        <v>321</v>
+      </c>
+      <c r="W62">
+        <v>397.28</v>
+      </c>
+      <c r="X62">
+        <v>499.65</v>
+      </c>
+      <c r="Y62">
+        <v>89</v>
+      </c>
+      <c r="Z62">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>45414</v>
       </c>
@@ -4354,8 +5484,26 @@
       <c r="T63" s="3">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U63">
+        <v>181.1</v>
+      </c>
+      <c r="V63">
+        <v>352.41</v>
+      </c>
+      <c r="W63">
+        <v>416.04</v>
+      </c>
+      <c r="X63">
+        <v>539.22</v>
+      </c>
+      <c r="Y63">
+        <v>105.14</v>
+      </c>
+      <c r="Z63">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>45416</v>
       </c>
@@ -4416,8 +5564,26 @@
       <c r="T64" s="3">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U64">
+        <v>176.61</v>
+      </c>
+      <c r="V64">
+        <v>332.83</v>
+      </c>
+      <c r="W64">
+        <v>360.57</v>
+      </c>
+      <c r="X64">
+        <v>548.6</v>
+      </c>
+      <c r="Y64">
+        <v>115</v>
+      </c>
+      <c r="Z64">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>45418</v>
       </c>
@@ -4478,8 +5644,26 @@
       <c r="T65" s="3">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U65">
+        <v>182.73</v>
+      </c>
+      <c r="V65">
+        <v>347.51</v>
+      </c>
+      <c r="W65">
+        <v>426.23</v>
+      </c>
+      <c r="X65">
+        <v>546.36</v>
+      </c>
+      <c r="Y65">
+        <v>97</v>
+      </c>
+      <c r="Z65">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>45420</v>
       </c>
@@ -4540,8 +5724,26 @@
       <c r="T66" s="3">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U66">
+        <v>203.8727368421053</v>
+      </c>
+      <c r="V66">
+        <v>355.19072538860098</v>
+      </c>
+      <c r="W66">
+        <v>430.58172774869109</v>
+      </c>
+      <c r="X66">
+        <v>538.75081521739128</v>
+      </c>
+      <c r="Y66">
+        <v>97.441847826086956</v>
+      </c>
+      <c r="Z66">
+        <v>205.375</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>45422</v>
       </c>
@@ -4602,8 +5804,26 @@
       <c r="T67" s="3">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U67">
+        <v>173.35</v>
+      </c>
+      <c r="V67">
+        <v>350.98</v>
+      </c>
+      <c r="W67">
+        <v>431.13</v>
+      </c>
+      <c r="X67">
+        <v>567.77</v>
+      </c>
+      <c r="Y67">
+        <v>117.69</v>
+      </c>
+      <c r="Z67">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>45424</v>
       </c>
@@ -4664,8 +5884,26 @@
       <c r="T68" s="3">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U68">
+        <v>157.44</v>
+      </c>
+      <c r="V68">
+        <v>366.89</v>
+      </c>
+      <c r="W68">
+        <v>466.61</v>
+      </c>
+      <c r="X68">
+        <v>561.45000000000005</v>
+      </c>
+      <c r="Y68">
+        <v>88</v>
+      </c>
+      <c r="Z68">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>45426</v>
       </c>
@@ -4726,8 +5964,26 @@
       <c r="T69" s="3">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U69">
+        <v>174.98</v>
+      </c>
+      <c r="V69">
+        <v>335.48</v>
+      </c>
+      <c r="W69">
+        <v>437.25</v>
+      </c>
+      <c r="X69">
+        <v>538.80999999999995</v>
+      </c>
+      <c r="Y69">
+        <v>115.94</v>
+      </c>
+      <c r="Z69">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>45428</v>
       </c>
@@ -4788,8 +6044,26 @@
       <c r="T70" s="3">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U70">
+        <v>181.91</v>
+      </c>
+      <c r="V70">
+        <v>352.2</v>
+      </c>
+      <c r="W70">
+        <v>411.14</v>
+      </c>
+      <c r="X70">
+        <v>525.35</v>
+      </c>
+      <c r="Y70">
+        <v>98</v>
+      </c>
+      <c r="Z70">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>45430</v>
       </c>
@@ -4850,8 +6124,26 @@
       <c r="T71" s="3">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U71">
+        <v>185.59</v>
+      </c>
+      <c r="V71">
+        <v>348.94</v>
+      </c>
+      <c r="W71">
+        <v>398.09</v>
+      </c>
+      <c r="X71">
+        <v>539.01</v>
+      </c>
+      <c r="Y71">
+        <v>123.75</v>
+      </c>
+      <c r="Z71">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>45432</v>
       </c>
@@ -4912,8 +6204,26 @@
       <c r="T72" s="3">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U72">
+        <v>167.23</v>
+      </c>
+      <c r="V72">
+        <v>318.76</v>
+      </c>
+      <c r="W72">
+        <v>407.06</v>
+      </c>
+      <c r="X72">
+        <v>520.04999999999995</v>
+      </c>
+      <c r="Y72">
+        <v>101</v>
+      </c>
+      <c r="Z72">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>45434</v>
       </c>
@@ -4974,8 +6284,26 @@
       <c r="T73" s="3">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U73">
+        <v>153.36000000000001</v>
+      </c>
+      <c r="V73">
+        <v>350.57</v>
+      </c>
+      <c r="W73">
+        <v>440.92</v>
+      </c>
+      <c r="X73">
+        <v>539.01</v>
+      </c>
+      <c r="Y73">
+        <v>93</v>
+      </c>
+      <c r="Z73">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>45436</v>
       </c>
@@ -5036,8 +6364,26 @@
       <c r="T74" s="3">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U74">
+        <v>179.06</v>
+      </c>
+      <c r="V74">
+        <v>346.7</v>
+      </c>
+      <c r="W74">
+        <v>446.22</v>
+      </c>
+      <c r="X74">
+        <v>559.41</v>
+      </c>
+      <c r="Y74">
+        <v>116.29</v>
+      </c>
+      <c r="Z74">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>45438</v>
       </c>
@@ -5098,8 +6444,26 @@
       <c r="T75" s="3">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U75">
+        <v>172.53</v>
+      </c>
+      <c r="V75">
+        <v>349.76</v>
+      </c>
+      <c r="W75">
+        <v>458.05</v>
+      </c>
+      <c r="X75">
+        <v>571.03</v>
+      </c>
+      <c r="Y75">
+        <v>117</v>
+      </c>
+      <c r="Z75">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>45440</v>
       </c>
@@ -5160,8 +6524,26 @@
       <c r="T76" s="3">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U76">
+        <v>183.95</v>
+      </c>
+      <c r="V76">
+        <v>369.74</v>
+      </c>
+      <c r="W76">
+        <v>460.09</v>
+      </c>
+      <c r="X76">
+        <v>582.86</v>
+      </c>
+      <c r="Y76">
+        <v>127.42</v>
+      </c>
+      <c r="Z76">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>45442</v>
       </c>
@@ -5222,8 +6604,26 @@
       <c r="T77" s="3">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U77">
+        <v>174.98</v>
+      </c>
+      <c r="V77">
+        <v>352.41</v>
+      </c>
+      <c r="W77">
+        <v>451.93</v>
+      </c>
+      <c r="X77">
+        <v>564.29999999999995</v>
+      </c>
+      <c r="Y77">
+        <v>104</v>
+      </c>
+      <c r="Z77">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>45444</v>
       </c>
@@ -5284,8 +6684,26 @@
       <c r="T78" s="3">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U78">
+        <v>183.55</v>
+      </c>
+      <c r="V78">
+        <v>341.19</v>
+      </c>
+      <c r="W78">
+        <v>429.91</v>
+      </c>
+      <c r="X78">
+        <v>544.52</v>
+      </c>
+      <c r="Y78">
+        <v>103</v>
+      </c>
+      <c r="Z78">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>45446</v>
       </c>
@@ -5346,8 +6764,26 @@
       <c r="T79" s="3">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U79">
+        <v>168.86</v>
+      </c>
+      <c r="V79">
+        <v>347.51</v>
+      </c>
+      <c r="W79">
+        <v>442.14</v>
+      </c>
+      <c r="X79">
+        <v>551.45000000000005</v>
+      </c>
+      <c r="Y79">
+        <v>111.08</v>
+      </c>
+      <c r="Z79">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>45448</v>
       </c>
@@ -5408,8 +6844,26 @@
       <c r="T80" s="3">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U80">
+        <v>179.88</v>
+      </c>
+      <c r="V80">
+        <v>335.48</v>
+      </c>
+      <c r="W80">
+        <v>405.02</v>
+      </c>
+      <c r="X80">
+        <v>547.58000000000004</v>
+      </c>
+      <c r="Y80">
+        <v>127.89</v>
+      </c>
+      <c r="Z80">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>45450</v>
       </c>
@@ -5470,8 +6924,26 @@
       <c r="T81" s="3">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U81">
+        <v>234.53</v>
+      </c>
+      <c r="V81">
+        <v>385.85</v>
+      </c>
+      <c r="W81">
+        <v>431.54</v>
+      </c>
+      <c r="X81">
+        <v>558.39</v>
+      </c>
+      <c r="Y81">
+        <v>101.89</v>
+      </c>
+      <c r="Z81">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>45452</v>
       </c>
@@ -5532,8 +7004,26 @@
       <c r="T82" s="3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U82">
+        <v>224.74</v>
+      </c>
+      <c r="V82">
+        <v>363.83</v>
+      </c>
+      <c r="W82">
+        <v>462.94</v>
+      </c>
+      <c r="X82">
+        <v>546.55999999999995</v>
+      </c>
+      <c r="Y82">
+        <v>91</v>
+      </c>
+      <c r="Z82">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>45454</v>
       </c>
@@ -5594,8 +7084,26 @@
       <c r="T83" s="3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U83">
+        <v>214.54</v>
+      </c>
+      <c r="V83">
+        <v>384.83</v>
+      </c>
+      <c r="W83">
+        <v>482.93</v>
+      </c>
+      <c r="X83">
+        <v>551.25</v>
+      </c>
+      <c r="Y83">
+        <v>98</v>
+      </c>
+      <c r="Z83">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>45456</v>
       </c>
@@ -5656,8 +7164,26 @@
       <c r="T84" s="3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U84">
+        <v>222.7</v>
+      </c>
+      <c r="V84">
+        <v>358.73</v>
+      </c>
+      <c r="W84">
+        <v>411.96</v>
+      </c>
+      <c r="X84">
+        <v>537.99</v>
+      </c>
+      <c r="Y84">
+        <v>83</v>
+      </c>
+      <c r="Z84">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>45458</v>
       </c>
@@ -5718,8 +7244,26 @@
       <c r="T85" s="3">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U85">
+        <v>215.77</v>
+      </c>
+      <c r="V85">
+        <v>335.48</v>
+      </c>
+      <c r="W85">
+        <v>428.68</v>
+      </c>
+      <c r="X85">
+        <v>553.9</v>
+      </c>
+      <c r="Y85">
+        <v>95</v>
+      </c>
+      <c r="Z85">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>45460</v>
       </c>
@@ -5780,8 +7324,26 @@
       <c r="T86" s="3">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U86">
+        <v>203.94</v>
+      </c>
+      <c r="V86">
+        <v>323.86</v>
+      </c>
+      <c r="W86">
+        <v>409.31</v>
+      </c>
+      <c r="X86">
+        <v>519.23</v>
+      </c>
+      <c r="Y86">
+        <v>105.5</v>
+      </c>
+      <c r="Z86">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>45462</v>
       </c>
@@ -5842,8 +7404,26 @@
       <c r="T87" s="3">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U87">
+        <v>203.12</v>
+      </c>
+      <c r="V87">
+        <v>341.19</v>
+      </c>
+      <c r="W87">
+        <v>447.04</v>
+      </c>
+      <c r="X87">
+        <v>548.79999999999995</v>
+      </c>
+      <c r="Y87">
+        <v>87</v>
+      </c>
+      <c r="Z87">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>45464</v>
       </c>
@@ -5904,8 +7484,26 @@
       <c r="T88" s="3">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U88">
+        <v>217.4</v>
+      </c>
+      <c r="V88">
+        <v>369.13</v>
+      </c>
+      <c r="W88">
+        <v>455.19</v>
+      </c>
+      <c r="X88">
+        <v>554.30999999999995</v>
+      </c>
+      <c r="Y88">
+        <v>101.17</v>
+      </c>
+      <c r="Z88">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>45466</v>
       </c>
@@ -5966,8 +7564,26 @@
       <c r="T89" s="3">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U89">
+        <v>212.51</v>
+      </c>
+      <c r="V89">
+        <v>363.22</v>
+      </c>
+      <c r="W89">
+        <v>436.84</v>
+      </c>
+      <c r="X89">
+        <v>573.48</v>
+      </c>
+      <c r="Y89">
+        <v>97.441847826086956</v>
+      </c>
+      <c r="Z89">
+        <v>205.375</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>45468</v>
       </c>
@@ -6028,8 +7644,26 @@
       <c r="T90" s="3">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U90">
+        <v>203.12</v>
+      </c>
+      <c r="V90">
+        <v>377.9</v>
+      </c>
+      <c r="W90">
+        <v>461.72</v>
+      </c>
+      <c r="X90">
+        <v>555.12</v>
+      </c>
+      <c r="Y90">
+        <v>107.08</v>
+      </c>
+      <c r="Z90">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>45470</v>
       </c>
@@ -6090,8 +7724,26 @@
       <c r="T91" s="3">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U91">
+        <v>194.56</v>
+      </c>
+      <c r="V91">
+        <v>340.58</v>
+      </c>
+      <c r="W91">
+        <v>385.04</v>
+      </c>
+      <c r="X91">
+        <v>476.4</v>
+      </c>
+      <c r="Y91">
+        <v>105</v>
+      </c>
+      <c r="Z91">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>45472</v>
       </c>
@@ -6152,8 +7804,26 @@
       <c r="T92" s="3">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U92">
+        <v>199.05</v>
+      </c>
+      <c r="V92">
+        <v>352.82</v>
+      </c>
+      <c r="W92">
+        <v>420.93</v>
+      </c>
+      <c r="X92">
+        <v>529.84</v>
+      </c>
+      <c r="Y92">
+        <v>89</v>
+      </c>
+      <c r="Z92">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>45474</v>
       </c>
@@ -6214,8 +7884,26 @@
       <c r="T93" s="3">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U93">
+        <v>210.06</v>
+      </c>
+      <c r="V93">
+        <v>347.11</v>
+      </c>
+      <c r="W93">
+        <v>385.85</v>
+      </c>
+      <c r="X93">
+        <v>529.42999999999995</v>
+      </c>
+      <c r="Y93">
+        <v>91</v>
+      </c>
+      <c r="Z93">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>45476</v>
       </c>
@@ -6276,8 +7964,26 @@
       <c r="T94" s="3">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U94">
+        <v>221.07</v>
+      </c>
+      <c r="V94">
+        <v>368.52</v>
+      </c>
+      <c r="W94">
+        <v>440.1</v>
+      </c>
+      <c r="X94">
+        <v>534.73</v>
+      </c>
+      <c r="Y94">
+        <v>90.5</v>
+      </c>
+      <c r="Z94">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>45478</v>
       </c>
@@ -6338,8 +8044,26 @@
       <c r="T95" s="3">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U95">
+        <v>206.39</v>
+      </c>
+      <c r="V95">
+        <v>383.61</v>
+      </c>
+      <c r="W95">
+        <v>449.89</v>
+      </c>
+      <c r="X95">
+        <v>536.97</v>
+      </c>
+      <c r="Y95">
+        <v>90.33</v>
+      </c>
+      <c r="Z95">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>45480</v>
       </c>
@@ -6400,8 +8124,26 @@
       <c r="T96" s="3">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U96">
+        <v>235.35</v>
+      </c>
+      <c r="V96">
+        <v>407.88</v>
+      </c>
+      <c r="W96">
+        <v>478.85</v>
+      </c>
+      <c r="X96">
+        <v>607.13</v>
+      </c>
+      <c r="Y96">
+        <v>97.441847826086956</v>
+      </c>
+      <c r="Z96">
+        <v>205.375</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>45482</v>
       </c>
@@ -6462,8 +8204,26 @@
       <c r="T97" s="3">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U97">
+        <v>200.68</v>
+      </c>
+      <c r="V97">
+        <v>387.28</v>
+      </c>
+      <c r="W97">
+        <v>458.46</v>
+      </c>
+      <c r="X97">
+        <v>548.6</v>
+      </c>
+      <c r="Y97">
+        <v>83</v>
+      </c>
+      <c r="Z97">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>45484</v>
       </c>
@@ -6524,8 +8284,26 @@
       <c r="T98" s="3">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U98">
+        <v>208.02</v>
+      </c>
+      <c r="V98">
+        <v>367.09</v>
+      </c>
+      <c r="W98">
+        <v>393.6</v>
+      </c>
+      <c r="X98">
+        <v>542.28</v>
+      </c>
+      <c r="Y98">
+        <v>82</v>
+      </c>
+      <c r="Z98">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>45486</v>
       </c>
@@ -6586,8 +8364,26 @@
       <c r="T99" s="3">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U99">
+        <v>224.74</v>
+      </c>
+      <c r="V99">
+        <v>387.89</v>
+      </c>
+      <c r="W99">
+        <v>451.12</v>
+      </c>
+      <c r="X99">
+        <v>543.29999999999995</v>
+      </c>
+      <c r="Y99">
+        <v>83</v>
+      </c>
+      <c r="Z99">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>45488</v>
       </c>
@@ -6648,8 +8444,26 @@
       <c r="T100" s="3">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U100">
+        <v>227.6</v>
+      </c>
+      <c r="V100">
+        <v>387.28</v>
+      </c>
+      <c r="W100">
+        <v>418.08</v>
+      </c>
+      <c r="X100">
+        <v>590.80999999999995</v>
+      </c>
+      <c r="Y100">
+        <v>100.84</v>
+      </c>
+      <c r="Z100">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>45490</v>
       </c>
@@ -6710,8 +8524,26 @@
       <c r="T101" s="3">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U101">
+        <v>201.49</v>
+      </c>
+      <c r="V101">
+        <v>382.59</v>
+      </c>
+      <c r="W101">
+        <v>440.51</v>
+      </c>
+      <c r="X101">
+        <v>544.52</v>
+      </c>
+      <c r="Y101">
+        <v>95.87</v>
+      </c>
+      <c r="Z101">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>45492</v>
       </c>
@@ -6772,8 +8604,26 @@
       <c r="T102" s="3">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U102">
+        <v>185.59</v>
+      </c>
+      <c r="V102">
+        <v>343.64</v>
+      </c>
+      <c r="W102">
+        <v>438.06</v>
+      </c>
+      <c r="X102">
+        <v>505.16</v>
+      </c>
+      <c r="Y102">
+        <v>123.5</v>
+      </c>
+      <c r="Z102">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>45494</v>
       </c>
@@ -6834,8 +8684,26 @@
       <c r="T103" s="3">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U103">
+        <v>195.78</v>
+      </c>
+      <c r="V103">
+        <v>357.71</v>
+      </c>
+      <c r="W103">
+        <v>398.09</v>
+      </c>
+      <c r="X103">
+        <v>533.1</v>
+      </c>
+      <c r="Y103">
+        <v>93</v>
+      </c>
+      <c r="Z103">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>45496</v>
       </c>
@@ -6896,8 +8764,26 @@
       <c r="T104" s="3">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U104">
+        <v>223.52</v>
+      </c>
+      <c r="V104">
+        <v>388.1</v>
+      </c>
+      <c r="W104">
+        <v>445</v>
+      </c>
+      <c r="X104">
+        <v>534.53</v>
+      </c>
+      <c r="Y104">
+        <v>91.5</v>
+      </c>
+      <c r="Z104">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>45498</v>
       </c>
@@ -6958,8 +8844,26 @@
       <c r="T105" s="3">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U105">
+        <v>221.89</v>
+      </c>
+      <c r="V105">
+        <v>381.57</v>
+      </c>
+      <c r="W105">
+        <v>451.12</v>
+      </c>
+      <c r="X105">
+        <v>566.95000000000005</v>
+      </c>
+      <c r="Y105">
+        <v>93.53</v>
+      </c>
+      <c r="Z105">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>45500</v>
       </c>
@@ -7020,8 +8924,26 @@
       <c r="T106" s="3">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U106">
+        <v>226.78</v>
+      </c>
+      <c r="V106">
+        <v>383.2</v>
+      </c>
+      <c r="W106">
+        <v>429.91</v>
+      </c>
+      <c r="X106">
+        <v>577.35</v>
+      </c>
+      <c r="Y106">
+        <v>88</v>
+      </c>
+      <c r="Z106">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>45502</v>
       </c>
@@ -7082,8 +9004,26 @@
       <c r="T107" s="3">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U107">
+        <v>227.19</v>
+      </c>
+      <c r="V107">
+        <v>375.86</v>
+      </c>
+      <c r="W107">
+        <v>451.12</v>
+      </c>
+      <c r="X107">
+        <v>533.91</v>
+      </c>
+      <c r="Y107">
+        <v>75.569999999999993</v>
+      </c>
+      <c r="Z107">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>45504</v>
       </c>
@@ -7144,8 +9084,26 @@
       <c r="T108" s="3">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U108">
+        <v>236.16</v>
+      </c>
+      <c r="V108">
+        <v>375.66</v>
+      </c>
+      <c r="W108">
+        <v>438.88</v>
+      </c>
+      <c r="X108">
+        <v>556.76</v>
+      </c>
+      <c r="Y108">
+        <v>73</v>
+      </c>
+      <c r="Z108">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>45506</v>
       </c>
@@ -7206,8 +9164,26 @@
       <c r="T109" s="3">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U109">
+        <v>280.62</v>
+      </c>
+      <c r="V109">
+        <v>415.02</v>
+      </c>
+      <c r="W109">
+        <v>450.71</v>
+      </c>
+      <c r="X109">
+        <v>580.01</v>
+      </c>
+      <c r="Y109">
+        <v>97.441847826086956</v>
+      </c>
+      <c r="Z109">
+        <v>205.375</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>45508</v>
       </c>
@@ -7268,8 +9244,26 @@
       <c r="T110" s="3">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U110">
+        <v>241.46</v>
+      </c>
+      <c r="V110">
+        <v>422.56</v>
+      </c>
+      <c r="W110">
+        <v>490.27</v>
+      </c>
+      <c r="X110">
+        <v>615.08000000000004</v>
+      </c>
+      <c r="Y110">
+        <v>78</v>
+      </c>
+      <c r="Z110">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>45510</v>
       </c>
@@ -7330,8 +9324,26 @@
       <c r="T111" s="3">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U111">
+        <v>222.7</v>
+      </c>
+      <c r="V111">
+        <v>374.43</v>
+      </c>
+      <c r="W111">
+        <v>418.89</v>
+      </c>
+      <c r="X111">
+        <v>545.54</v>
+      </c>
+      <c r="Y111">
+        <v>74</v>
+      </c>
+      <c r="Z111">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>45512</v>
       </c>
@@ -7392,8 +9404,26 @@
       <c r="T112" s="3">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U112">
+        <v>217.4</v>
+      </c>
+      <c r="V112">
+        <v>376.88</v>
+      </c>
+      <c r="W112">
+        <v>436.02</v>
+      </c>
+      <c r="X112">
+        <v>540.03</v>
+      </c>
+      <c r="Y112">
+        <v>76.739999999999995</v>
+      </c>
+      <c r="Z112">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>45514</v>
       </c>
@@ -7454,8 +9484,26 @@
       <c r="T113" s="3">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U113">
+        <v>238.2</v>
+      </c>
+      <c r="V113">
+        <v>373.82</v>
+      </c>
+      <c r="W113">
+        <v>456.01</v>
+      </c>
+      <c r="X113">
+        <v>549.62</v>
+      </c>
+      <c r="Y113">
+        <v>83</v>
+      </c>
+      <c r="Z113">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>45516</v>
       </c>
@@ -7516,8 +9564,26 @@
       <c r="T114" s="3">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U114">
+        <v>233.31</v>
+      </c>
+      <c r="V114">
+        <v>384.22</v>
+      </c>
+      <c r="W114">
+        <v>443.77</v>
+      </c>
+      <c r="X114">
+        <v>563.89</v>
+      </c>
+      <c r="Y114">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="Z114">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>45518</v>
       </c>
@@ -7578,8 +9644,26 @@
       <c r="T115" s="3">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U115">
+        <v>250.85</v>
+      </c>
+      <c r="V115">
+        <v>394.22</v>
+      </c>
+      <c r="W115">
+        <v>467.84</v>
+      </c>
+      <c r="X115">
+        <v>568.79</v>
+      </c>
+      <c r="Y115">
+        <v>79.42</v>
+      </c>
+      <c r="Z115">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>45520</v>
       </c>
@@ -7640,8 +9724,26 @@
       <c r="T116" s="3">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U116">
+        <v>207.2</v>
+      </c>
+      <c r="V116">
+        <v>392.58</v>
+      </c>
+      <c r="W116">
+        <v>468.25</v>
+      </c>
+      <c r="X116">
+        <v>534.53</v>
+      </c>
+      <c r="Y116">
+        <v>97</v>
+      </c>
+      <c r="Z116">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>45522</v>
       </c>
@@ -7702,8 +9804,26 @@
       <c r="T117" s="3">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U117">
+        <v>234.53</v>
+      </c>
+      <c r="V117">
+        <v>386.67</v>
+      </c>
+      <c r="W117">
+        <v>453.56</v>
+      </c>
+      <c r="X117">
+        <v>554.30999999999995</v>
+      </c>
+      <c r="Y117">
+        <v>87.92</v>
+      </c>
+      <c r="Z117">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>45524</v>
       </c>
@@ -7764,8 +9884,26 @@
       <c r="T118" s="3">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U118">
+        <v>249.62</v>
+      </c>
+      <c r="V118">
+        <v>406.86</v>
+      </c>
+      <c r="W118">
+        <v>471.92</v>
+      </c>
+      <c r="X118">
+        <v>568.38</v>
+      </c>
+      <c r="Y118">
+        <v>67.95</v>
+      </c>
+      <c r="Z118">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="119" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>45526</v>
       </c>
@@ -7826,8 +9964,26 @@
       <c r="T119" s="3">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U119">
+        <v>229.23</v>
+      </c>
+      <c r="V119">
+        <v>399.11</v>
+      </c>
+      <c r="W119">
+        <v>482.11</v>
+      </c>
+      <c r="X119">
+        <v>583.27</v>
+      </c>
+      <c r="Y119">
+        <v>89.41</v>
+      </c>
+      <c r="Z119">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="120" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>45528</v>
       </c>
@@ -7888,8 +10044,26 @@
       <c r="T120" s="3">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U120">
+        <v>238.61</v>
+      </c>
+      <c r="V120">
+        <v>407.68</v>
+      </c>
+      <c r="W120">
+        <v>458.46</v>
+      </c>
+      <c r="X120">
+        <v>589.79</v>
+      </c>
+      <c r="Y120">
+        <v>110.76</v>
+      </c>
+      <c r="Z120">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>45530</v>
       </c>
@@ -7950,8 +10124,26 @@
       <c r="T121" s="3">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U121">
+        <v>234.94</v>
+      </c>
+      <c r="V121">
+        <v>399.72</v>
+      </c>
+      <c r="W121">
+        <v>447.85</v>
+      </c>
+      <c r="X121">
+        <v>574.09</v>
+      </c>
+      <c r="Y121">
+        <v>94.51</v>
+      </c>
+      <c r="Z121">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="122" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>45532</v>
       </c>
@@ -8012,8 +10204,26 @@
       <c r="T122" s="3">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U122">
+        <v>220.66</v>
+      </c>
+      <c r="V122">
+        <v>376.07</v>
+      </c>
+      <c r="W122">
+        <v>464.58</v>
+      </c>
+      <c r="X122">
+        <v>526.16999999999996</v>
+      </c>
+      <c r="Y122">
+        <v>78.2</v>
+      </c>
+      <c r="Z122">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="123" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>45534</v>
       </c>
@@ -8074,8 +10284,26 @@
       <c r="T123" s="3">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U123">
+        <v>170.09</v>
+      </c>
+      <c r="V123">
+        <v>326.51</v>
+      </c>
+      <c r="W123">
+        <v>371.99</v>
+      </c>
+      <c r="X123">
+        <v>543.70000000000005</v>
+      </c>
+      <c r="Y123">
+        <v>79</v>
+      </c>
+      <c r="Z123">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>45536</v>
       </c>
@@ -8136,8 +10364,26 @@
       <c r="T124" s="3">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U124">
+        <v>172.13</v>
+      </c>
+      <c r="V124">
+        <v>357.1</v>
+      </c>
+      <c r="W124">
+        <v>426.23</v>
+      </c>
+      <c r="X124">
+        <v>562.87</v>
+      </c>
+      <c r="Y124">
+        <v>97.441847826086956</v>
+      </c>
+      <c r="Z124">
+        <v>205.375</v>
+      </c>
+    </row>
+    <row r="125" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>45538</v>
       </c>
@@ -8198,8 +10444,26 @@
       <c r="T125" s="3">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U125">
+        <v>190.89</v>
+      </c>
+      <c r="V125">
+        <v>356.49</v>
+      </c>
+      <c r="W125">
+        <v>439.29</v>
+      </c>
+      <c r="X125">
+        <v>542.67999999999995</v>
+      </c>
+      <c r="Y125">
+        <v>88.92</v>
+      </c>
+      <c r="Z125">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="126" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>45540</v>
       </c>
@@ -8260,8 +10524,26 @@
       <c r="T126" s="3">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U126">
+        <v>188.44</v>
+      </c>
+      <c r="V126">
+        <v>340.58</v>
+      </c>
+      <c r="W126">
+        <v>418.08</v>
+      </c>
+      <c r="X126">
+        <v>547.16999999999996</v>
+      </c>
+      <c r="Y126">
+        <v>79.739999999999995</v>
+      </c>
+      <c r="Z126">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="127" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>45542</v>
       </c>
@@ -8322,8 +10604,26 @@
       <c r="T127" s="3">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U127">
+        <v>179.88</v>
+      </c>
+      <c r="V127">
+        <v>333.85</v>
+      </c>
+      <c r="W127">
+        <v>405.43</v>
+      </c>
+      <c r="X127">
+        <v>535.14</v>
+      </c>
+      <c r="Y127">
+        <v>61.25</v>
+      </c>
+      <c r="Z127">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="128" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>45544</v>
       </c>
@@ -8384,8 +10684,26 @@
       <c r="T128" s="3">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U128">
+        <v>201.08</v>
+      </c>
+      <c r="V128">
+        <v>352</v>
+      </c>
+      <c r="W128">
+        <v>411.55</v>
+      </c>
+      <c r="X128">
+        <v>545.13</v>
+      </c>
+      <c r="Y128">
+        <v>75.84</v>
+      </c>
+      <c r="Z128">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="129" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>45546</v>
       </c>
@@ -8446,8 +10764,26 @@
       <c r="T129" s="3">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U129">
+        <v>168.05</v>
+      </c>
+      <c r="V129">
+        <v>309.99</v>
+      </c>
+      <c r="W129">
+        <v>414</v>
+      </c>
+      <c r="X129">
+        <v>508.22</v>
+      </c>
+      <c r="Y129">
+        <v>74.290000000000006</v>
+      </c>
+      <c r="Z129">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="130" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>45548</v>
       </c>
@@ -8508,8 +10844,26 @@
       <c r="T130" s="3">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U130">
+        <v>194.15</v>
+      </c>
+      <c r="V130">
+        <v>329.16</v>
+      </c>
+      <c r="W130">
+        <v>412.37</v>
+      </c>
+      <c r="X130">
+        <v>508.01</v>
+      </c>
+      <c r="Y130">
+        <v>83</v>
+      </c>
+      <c r="Z130">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="131" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>45550</v>
       </c>
@@ -8570,8 +10924,26 @@
       <c r="T131" s="3">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U131">
+        <v>190.89</v>
+      </c>
+      <c r="V131">
+        <v>336.09</v>
+      </c>
+      <c r="W131">
+        <v>429.91</v>
+      </c>
+      <c r="X131">
+        <v>493.94</v>
+      </c>
+      <c r="Y131">
+        <v>97.441847826086956</v>
+      </c>
+      <c r="Z131">
+        <v>205.375</v>
+      </c>
+    </row>
+    <row r="132" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>45552</v>
       </c>
@@ -8632,8 +11004,26 @@
       <c r="T132" s="3">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U132">
+        <v>229.23</v>
+      </c>
+      <c r="V132">
+        <v>373.01</v>
+      </c>
+      <c r="W132">
+        <v>455.19</v>
+      </c>
+      <c r="X132">
+        <v>502.92</v>
+      </c>
+      <c r="Y132">
+        <v>85.61</v>
+      </c>
+      <c r="Z132">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="133" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>45554</v>
       </c>
@@ -8694,8 +11084,26 @@
       <c r="T133" s="3">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U133">
+        <v>222.29</v>
+      </c>
+      <c r="V133">
+        <v>371.58</v>
+      </c>
+      <c r="W133">
+        <v>435.62</v>
+      </c>
+      <c r="X133">
+        <v>559.20000000000005</v>
+      </c>
+      <c r="Y133">
+        <v>84</v>
+      </c>
+      <c r="Z133">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="134" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>45556</v>
       </c>
@@ -8756,8 +11164,26 @@
       <c r="T134" s="3">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U134">
+        <v>252.07</v>
+      </c>
+      <c r="V134">
+        <v>393.6</v>
+      </c>
+      <c r="W134">
+        <v>443.37</v>
+      </c>
+      <c r="X134">
+        <v>568.58000000000004</v>
+      </c>
+      <c r="Y134">
+        <v>77.27</v>
+      </c>
+      <c r="Z134">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="135" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>45558</v>
       </c>
@@ -8818,8 +11244,26 @@
       <c r="T135" s="3">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U135">
+        <v>252.48</v>
+      </c>
+      <c r="V135">
+        <v>380.55</v>
+      </c>
+      <c r="W135">
+        <v>450.71</v>
+      </c>
+      <c r="X135">
+        <v>520.4</v>
+      </c>
+      <c r="Y135">
+        <v>86.43</v>
+      </c>
+      <c r="Z135">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="136" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>45560</v>
       </c>
@@ -8880,8 +11324,26 @@
       <c r="T136" s="3">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U136">
+        <v>215.36</v>
+      </c>
+      <c r="V136">
+        <v>370.76</v>
+      </c>
+      <c r="W136">
+        <v>389.53</v>
+      </c>
+      <c r="X136">
+        <v>461.6</v>
+      </c>
+      <c r="Y136">
+        <v>83.75</v>
+      </c>
+      <c r="Z136">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="137" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>45562</v>
       </c>
@@ -8942,8 +11404,26 @@
       <c r="T137" s="3">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U137">
+        <v>245.95</v>
+      </c>
+      <c r="V137">
+        <v>394.42</v>
+      </c>
+      <c r="W137">
+        <v>452.75</v>
+      </c>
+      <c r="X137">
+        <v>544.4</v>
+      </c>
+      <c r="Y137">
+        <v>74.38</v>
+      </c>
+      <c r="Z137">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="138" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>45564</v>
       </c>
@@ -9004,8 +11484,26 @@
       <c r="T138" s="3">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U138">
+        <v>234.94</v>
+      </c>
+      <c r="V138">
+        <v>402.99</v>
+      </c>
+      <c r="W138">
+        <v>480.89</v>
+      </c>
+      <c r="X138">
+        <v>501.6</v>
+      </c>
+      <c r="Y138">
+        <v>77.739999999999995</v>
+      </c>
+      <c r="Z138">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="139" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>45566</v>
       </c>
@@ -9066,8 +11564,26 @@
       <c r="T139" s="3">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U139">
+        <v>234.12</v>
+      </c>
+      <c r="V139">
+        <v>388.51</v>
+      </c>
+      <c r="W139">
+        <v>439.29</v>
+      </c>
+      <c r="X139">
+        <v>546.55999999999995</v>
+      </c>
+      <c r="Y139">
+        <v>89.26</v>
+      </c>
+      <c r="Z139">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="140" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>45568</v>
       </c>
@@ -9128,8 +11644,26 @@
       <c r="T140" s="3">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U140">
+        <v>222.7</v>
+      </c>
+      <c r="V140">
+        <v>372.39</v>
+      </c>
+      <c r="W140">
+        <v>473.14</v>
+      </c>
+      <c r="X140">
+        <v>572.66</v>
+      </c>
+      <c r="Y140">
+        <v>84.41</v>
+      </c>
+      <c r="Z140">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="141" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>45570</v>
       </c>
@@ -9190,8 +11724,26 @@
       <c r="T141" s="3">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U141">
+        <v>234.94</v>
+      </c>
+      <c r="V141">
+        <v>387.49</v>
+      </c>
+      <c r="W141">
+        <v>446.63</v>
+      </c>
+      <c r="X141">
+        <v>544.52</v>
+      </c>
+      <c r="Y141">
+        <v>79.94</v>
+      </c>
+      <c r="Z141">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="142" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>45572</v>
       </c>
@@ -9252,8 +11804,26 @@
       <c r="T142" s="3">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U142">
+        <v>227.19</v>
+      </c>
+      <c r="V142">
+        <v>395.44</v>
+      </c>
+      <c r="W142">
+        <v>476.81</v>
+      </c>
+      <c r="X142">
+        <v>560.63</v>
+      </c>
+      <c r="Y142">
+        <v>82.48</v>
+      </c>
+      <c r="Z142">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="143" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>45566</v>
       </c>
@@ -9314,8 +11884,26 @@
       <c r="T143" s="3">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U143">
+        <v>230.04</v>
+      </c>
+      <c r="V143">
+        <v>384.43</v>
+      </c>
+      <c r="W143">
+        <v>472.73</v>
+      </c>
+      <c r="X143">
+        <v>564.51</v>
+      </c>
+      <c r="Y143">
+        <v>86.67</v>
+      </c>
+      <c r="Z143">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="144" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>45568</v>
       </c>
@@ -9376,8 +11964,26 @@
       <c r="T144" s="3">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U144">
+        <v>199.45</v>
+      </c>
+      <c r="V144">
+        <v>372.8</v>
+      </c>
+      <c r="W144">
+        <v>422.97</v>
+      </c>
+      <c r="X144">
+        <v>539.83000000000004</v>
+      </c>
+      <c r="Y144">
+        <v>87</v>
+      </c>
+      <c r="Z144">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="145" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>45570</v>
       </c>
@@ -9438,8 +12044,26 @@
       <c r="T145" s="3">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U145">
+        <v>209.24</v>
+      </c>
+      <c r="V145">
+        <v>370.36</v>
+      </c>
+      <c r="W145">
+        <v>468.65</v>
+      </c>
+      <c r="X145">
+        <v>575.72</v>
+      </c>
+      <c r="Y145">
+        <v>89.79</v>
+      </c>
+      <c r="Z145">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="146" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>45572</v>
       </c>
@@ -9500,8 +12124,26 @@
       <c r="T146" s="3">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U146">
+        <v>211.69</v>
+      </c>
+      <c r="V146">
+        <v>357.3</v>
+      </c>
+      <c r="W146">
+        <v>426.64</v>
+      </c>
+      <c r="X146">
+        <v>554.72</v>
+      </c>
+      <c r="Y146">
+        <v>109.24</v>
+      </c>
+      <c r="Z146">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="147" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>45574</v>
       </c>
@@ -9562,8 +12204,26 @@
       <c r="T147" s="3">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U147">
+        <v>234.12</v>
+      </c>
+      <c r="V147">
+        <v>376.88</v>
+      </c>
+      <c r="W147">
+        <v>457.85</v>
+      </c>
+      <c r="X147">
+        <v>584.49</v>
+      </c>
+      <c r="Y147">
+        <v>83.83</v>
+      </c>
+      <c r="Z147">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="148" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>45576</v>
       </c>
@@ -9624,8 +12284,26 @@
       <c r="T148" s="3">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U148">
+        <v>236.16</v>
+      </c>
+      <c r="V148">
+        <v>368.52</v>
+      </c>
+      <c r="W148">
+        <v>411.96</v>
+      </c>
+      <c r="X148">
+        <v>550.84</v>
+      </c>
+      <c r="Y148">
+        <v>87.5</v>
+      </c>
+      <c r="Z148">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="149" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>45578</v>
       </c>
@@ -9686,8 +12364,26 @@
       <c r="T149" s="3">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U149">
+        <v>220.66</v>
+      </c>
+      <c r="V149">
+        <v>358.32</v>
+      </c>
+      <c r="W149">
+        <v>428.68</v>
+      </c>
+      <c r="X149">
+        <v>542.28</v>
+      </c>
+      <c r="Y149">
+        <v>84.5</v>
+      </c>
+      <c r="Z149">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="150" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>45580</v>
       </c>
@@ -9748,8 +12444,26 @@
       <c r="T150" s="3">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U150">
+        <v>199.05</v>
+      </c>
+      <c r="V150">
+        <v>347.92</v>
+      </c>
+      <c r="W150">
+        <v>439.29</v>
+      </c>
+      <c r="X150">
+        <v>548.79999999999995</v>
+      </c>
+      <c r="Y150">
+        <v>103</v>
+      </c>
+      <c r="Z150">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="151" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>45582</v>
       </c>
@@ -9810,8 +12524,26 @@
       <c r="T151" s="3">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U151">
+        <v>211.28</v>
+      </c>
+      <c r="V151">
+        <v>324.67</v>
+      </c>
+      <c r="W151">
+        <v>423.38</v>
+      </c>
+      <c r="X151">
+        <v>553.9</v>
+      </c>
+      <c r="Y151">
+        <v>82</v>
+      </c>
+      <c r="Z151">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="152" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>45584</v>
       </c>
@@ -9872,8 +12604,26 @@
       <c r="T152" s="3">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U152">
+        <v>211.69</v>
+      </c>
+      <c r="V152">
+        <v>356.69</v>
+      </c>
+      <c r="W152">
+        <v>420.12</v>
+      </c>
+      <c r="X152">
+        <v>554.91999999999996</v>
+      </c>
+      <c r="Y152">
+        <v>87.11</v>
+      </c>
+      <c r="Z152">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="153" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>45586</v>
       </c>
@@ -9934,8 +12684,26 @@
       <c r="T153" s="3">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U153">
+        <v>250.85</v>
+      </c>
+      <c r="V153">
+        <v>389.73</v>
+      </c>
+      <c r="W153">
+        <v>484.8</v>
+      </c>
+      <c r="X153">
+        <v>586.74</v>
+      </c>
+      <c r="Y153">
+        <v>97</v>
+      </c>
+      <c r="Z153">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="154" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>45588</v>
       </c>
@@ -9996,8 +12764,26 @@
       <c r="T154" s="3">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U154">
+        <v>225.15</v>
+      </c>
+      <c r="V154">
+        <v>302</v>
+      </c>
+      <c r="W154">
+        <v>442.96</v>
+      </c>
+      <c r="X154">
+        <v>565.12</v>
+      </c>
+      <c r="Y154">
+        <v>94.97</v>
+      </c>
+      <c r="Z154">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="155" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>45589</v>
       </c>
@@ -10058,8 +12844,26 @@
       <c r="T155" s="3">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U155">
+        <v>209.24</v>
+      </c>
+      <c r="V155">
+        <v>333.8</v>
+      </c>
+      <c r="W155">
+        <v>411.55</v>
+      </c>
+      <c r="X155">
+        <v>559.20000000000005</v>
+      </c>
+      <c r="Y155">
+        <v>98.79</v>
+      </c>
+      <c r="Z155">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="156" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>45590</v>
       </c>
@@ -10120,8 +12924,26 @@
       <c r="T156" s="3">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U156">
+        <v>167.2</v>
+      </c>
+      <c r="V156">
+        <v>330.6</v>
+      </c>
+      <c r="W156">
+        <v>422.16</v>
+      </c>
+      <c r="X156">
+        <v>535.75</v>
+      </c>
+      <c r="Y156">
+        <v>92.77</v>
+      </c>
+      <c r="Z156">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="157" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>45592</v>
       </c>
@@ -10182,8 +13004,26 @@
       <c r="T157" s="3">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U157">
+        <v>200.4</v>
+      </c>
+      <c r="V157">
+        <v>344.8</v>
+      </c>
+      <c r="W157">
+        <v>458.46</v>
+      </c>
+      <c r="X157">
+        <v>536.77</v>
+      </c>
+      <c r="Y157">
+        <v>97.441847826086956</v>
+      </c>
+      <c r="Z157">
+        <v>205.375</v>
+      </c>
+    </row>
+    <row r="158" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>45594</v>
       </c>
@@ -10244,8 +13084,26 @@
       <c r="T158" s="3">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U158">
+        <v>181.6</v>
+      </c>
+      <c r="V158">
+        <v>327.12</v>
+      </c>
+      <c r="W158">
+        <v>410.74</v>
+      </c>
+      <c r="X158">
+        <v>532.08000000000004</v>
+      </c>
+      <c r="Y158">
+        <v>97.441847826086956</v>
+      </c>
+      <c r="Z158">
+        <v>205.375</v>
+      </c>
+    </row>
+    <row r="159" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>45596</v>
       </c>
@@ -10306,8 +13164,26 @@
       <c r="T159" s="3">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U159">
+        <v>180.4</v>
+      </c>
+      <c r="V159">
+        <v>344.45</v>
+      </c>
+      <c r="W159">
+        <v>444.18</v>
+      </c>
+      <c r="X159">
+        <v>502.51</v>
+      </c>
+      <c r="Y159">
+        <v>103.68</v>
+      </c>
+      <c r="Z159">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="160" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>45608</v>
       </c>
@@ -10368,8 +13244,26 @@
       <c r="T160" s="3">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U160">
+        <v>205.16</v>
+      </c>
+      <c r="V160">
+        <v>359.95</v>
+      </c>
+      <c r="W160">
+        <v>417.67</v>
+      </c>
+      <c r="X160">
+        <v>566.75</v>
+      </c>
+      <c r="Y160">
+        <v>104.32</v>
+      </c>
+      <c r="Z160">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="161" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>45598</v>
       </c>
@@ -10430,8 +13324,26 @@
       <c r="T161" s="3">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U161">
+        <v>229.64</v>
+      </c>
+      <c r="V161">
+        <v>350.98</v>
+      </c>
+      <c r="W161">
+        <v>424.6</v>
+      </c>
+      <c r="X161">
+        <v>563.08000000000004</v>
+      </c>
+      <c r="Y161">
+        <v>94</v>
+      </c>
+      <c r="Z161">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="162" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>45599</v>
       </c>
@@ -10492,8 +13404,26 @@
       <c r="T162" s="3">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U162">
+        <v>246.77</v>
+      </c>
+      <c r="V162">
+        <v>382.59</v>
+      </c>
+      <c r="W162">
+        <v>498.43</v>
+      </c>
+      <c r="X162">
+        <v>580.41</v>
+      </c>
+      <c r="Y162">
+        <v>84</v>
+      </c>
+      <c r="Z162">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="163" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>45600</v>
       </c>
@@ -10554,8 +13484,26 @@
       <c r="T163" s="3">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U163">
+        <v>239.43</v>
+      </c>
+      <c r="V163">
+        <v>377.29</v>
+      </c>
+      <c r="W163">
+        <v>463.35</v>
+      </c>
+      <c r="X163">
+        <v>527.59</v>
+      </c>
+      <c r="Y163">
+        <v>102</v>
+      </c>
+      <c r="Z163">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="164" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>45602</v>
       </c>
@@ -10616,8 +13564,26 @@
       <c r="T164" s="3">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U164">
+        <v>242.69</v>
+      </c>
+      <c r="V164">
+        <v>380.55</v>
+      </c>
+      <c r="W164">
+        <v>462.54</v>
+      </c>
+      <c r="X164">
+        <v>564.51</v>
+      </c>
+      <c r="Y164">
+        <v>107.86</v>
+      </c>
+      <c r="Z164">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="165" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>45604</v>
       </c>
@@ -10678,8 +13644,26 @@
       <c r="T165" s="3">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U165">
+        <v>239.02</v>
+      </c>
+      <c r="V165">
+        <v>409.31</v>
+      </c>
+      <c r="W165">
+        <v>454.79</v>
+      </c>
+      <c r="X165">
+        <v>563.69000000000005</v>
+      </c>
+      <c r="Y165">
+        <v>97.441847826086956</v>
+      </c>
+      <c r="Z165">
+        <v>205.375</v>
+      </c>
+    </row>
+    <row r="166" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>45605</v>
       </c>
@@ -10740,8 +13724,26 @@
       <c r="T166" s="3">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U166">
+        <v>224.33</v>
+      </c>
+      <c r="V166">
+        <v>393.2</v>
+      </c>
+      <c r="W166">
+        <v>431.13</v>
+      </c>
+      <c r="X166">
+        <v>555.94000000000005</v>
+      </c>
+      <c r="Y166">
+        <v>102.85</v>
+      </c>
+      <c r="Z166">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="167" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>45606</v>
       </c>
@@ -10802,8 +13804,26 @@
       <c r="T167" s="3">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U167">
+        <v>216.58</v>
+      </c>
+      <c r="V167">
+        <v>366.89</v>
+      </c>
+      <c r="W167">
+        <v>448.26</v>
+      </c>
+      <c r="X167">
+        <v>528.82000000000005</v>
+      </c>
+      <c r="Y167">
+        <v>103.92</v>
+      </c>
+      <c r="Z167">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="168" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>45607</v>
       </c>
@@ -10864,8 +13884,26 @@
       <c r="T168" s="3">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U168">
+        <v>237.79</v>
+      </c>
+      <c r="V168">
+        <v>384.63</v>
+      </c>
+      <c r="W168">
+        <v>445.4</v>
+      </c>
+      <c r="X168">
+        <v>541.66</v>
+      </c>
+      <c r="Y168">
+        <v>96.92</v>
+      </c>
+      <c r="Z168">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="169" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>45608</v>
       </c>
@@ -10926,8 +13964,26 @@
       <c r="T169" s="3">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U169">
+        <v>239.43</v>
+      </c>
+      <c r="V169">
+        <v>367.5</v>
+      </c>
+      <c r="W169">
+        <v>408.7</v>
+      </c>
+      <c r="X169">
+        <v>523.11</v>
+      </c>
+      <c r="Y169">
+        <v>92.05</v>
+      </c>
+      <c r="Z169">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="170" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>45609</v>
       </c>
@@ -10988,8 +14044,26 @@
       <c r="T170" s="3">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U170">
+        <v>268.39</v>
+      </c>
+      <c r="V170">
+        <v>408.49</v>
+      </c>
+      <c r="W170">
+        <v>419.71</v>
+      </c>
+      <c r="X170">
+        <v>527.39</v>
+      </c>
+      <c r="Y170">
+        <v>87.87</v>
+      </c>
+      <c r="Z170">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="171" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>45610</v>
       </c>
@@ -11050,8 +14124,26 @@
       <c r="T171" s="3">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U171">
+        <v>262.67</v>
+      </c>
+      <c r="V171">
+        <v>384.43</v>
+      </c>
+      <c r="W171">
+        <v>465.8</v>
+      </c>
+      <c r="X171">
+        <v>528.61</v>
+      </c>
+      <c r="Y171">
+        <v>79.62</v>
+      </c>
+      <c r="Z171">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="172" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>45611</v>
       </c>
@@ -11112,8 +14204,26 @@
       <c r="T172" s="3">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U172">
+        <v>230.04</v>
+      </c>
+      <c r="V172">
+        <v>387.28</v>
+      </c>
+      <c r="W172">
+        <v>489.86</v>
+      </c>
+      <c r="X172">
+        <v>544.32000000000005</v>
+      </c>
+      <c r="Y172">
+        <v>78.37</v>
+      </c>
+      <c r="Z172">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="173" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>45612</v>
       </c>
@@ -11174,8 +14284,26 @@
       <c r="T173" s="3">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U173">
+        <v>252.89</v>
+      </c>
+      <c r="V173">
+        <v>386.67</v>
+      </c>
+      <c r="W173">
+        <v>481.71</v>
+      </c>
+      <c r="X173">
+        <v>562.66999999999996</v>
+      </c>
+      <c r="Y173">
+        <v>85.57</v>
+      </c>
+      <c r="Z173">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="174" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>45614</v>
       </c>
@@ -11236,8 +14364,26 @@
       <c r="T174" s="3">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U174">
+        <v>230.04</v>
+      </c>
+      <c r="V174">
+        <v>395.24</v>
+      </c>
+      <c r="W174">
+        <v>482.93</v>
+      </c>
+      <c r="X174">
+        <v>555.12</v>
+      </c>
+      <c r="Y174">
+        <v>88.34</v>
+      </c>
+      <c r="Z174">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="175" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>45616</v>
       </c>
@@ -11298,8 +14444,26 @@
       <c r="T175" s="3">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U175">
+        <v>234.94</v>
+      </c>
+      <c r="V175">
+        <v>389.93</v>
+      </c>
+      <c r="W175">
+        <v>466.21</v>
+      </c>
+      <c r="X175">
+        <v>541.04999999999995</v>
+      </c>
+      <c r="Y175">
+        <v>85.87</v>
+      </c>
+      <c r="Z175">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="176" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>45618</v>
       </c>
@@ -11360,8 +14524,26 @@
       <c r="T176" s="3">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U176">
+        <v>219.85</v>
+      </c>
+      <c r="V176">
+        <v>348.74</v>
+      </c>
+      <c r="W176">
+        <v>442.14</v>
+      </c>
+      <c r="X176">
+        <v>510.46</v>
+      </c>
+      <c r="Y176">
+        <v>93.57</v>
+      </c>
+      <c r="Z176">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="177" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>45620</v>
       </c>
@@ -11422,8 +14604,26 @@
       <c r="T177" s="3">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U177">
+        <v>214.14</v>
+      </c>
+      <c r="V177">
+        <v>386.87</v>
+      </c>
+      <c r="W177">
+        <v>475.59</v>
+      </c>
+      <c r="X177">
+        <v>530.86</v>
+      </c>
+      <c r="Y177">
+        <v>111.13</v>
+      </c>
+      <c r="Z177">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="178" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <v>45622</v>
       </c>
@@ -11484,8 +14684,26 @@
       <c r="T178" s="3">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U178">
+        <v>235.75</v>
+      </c>
+      <c r="V178">
+        <v>368.72</v>
+      </c>
+      <c r="W178">
+        <v>400.95</v>
+      </c>
+      <c r="X178">
+        <v>545.54</v>
+      </c>
+      <c r="Y178">
+        <v>97.35</v>
+      </c>
+      <c r="Z178">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="179" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>45624</v>
       </c>
@@ -11546,8 +14764,26 @@
       <c r="T179" s="3">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U179">
+        <v>209.65</v>
+      </c>
+      <c r="V179">
+        <v>369.95</v>
+      </c>
+      <c r="W179">
+        <v>429.09</v>
+      </c>
+      <c r="X179">
+        <v>558.79999999999995</v>
+      </c>
+      <c r="Y179">
+        <v>103</v>
+      </c>
+      <c r="Z179">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="180" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
         <v>45626</v>
       </c>
@@ -11608,8 +14844,26 @@
       <c r="T180" s="3">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U180">
+        <v>203.8727368421053</v>
+      </c>
+      <c r="V180">
+        <v>355.19072538860098</v>
+      </c>
+      <c r="W180">
+        <v>430.58172774869109</v>
+      </c>
+      <c r="X180">
+        <v>538.75081521739128</v>
+      </c>
+      <c r="Y180">
+        <v>97.441847826086956</v>
+      </c>
+      <c r="Z180">
+        <v>205.375</v>
+      </c>
+    </row>
+    <row r="181" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <v>45628</v>
       </c>
@@ -11670,8 +14924,26 @@
       <c r="T181" s="3">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U181">
+        <v>230.45</v>
+      </c>
+      <c r="V181">
+        <v>343.84</v>
+      </c>
+      <c r="W181">
+        <v>421.75</v>
+      </c>
+      <c r="X181">
+        <v>531.47</v>
+      </c>
+      <c r="Y181">
+        <v>94.08</v>
+      </c>
+      <c r="Z181">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="182" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
         <v>45630</v>
       </c>
@@ -11732,8 +15004,26 @@
       <c r="T182" s="3">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U182">
+        <v>235.35</v>
+      </c>
+      <c r="V182">
+        <v>385.85</v>
+      </c>
+      <c r="W182">
+        <v>421.75</v>
+      </c>
+      <c r="X182">
+        <v>581.42999999999995</v>
+      </c>
+      <c r="Y182">
+        <v>97.441847826086956</v>
+      </c>
+      <c r="Z182">
+        <v>205.375</v>
+      </c>
+    </row>
+    <row r="183" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
         <v>45632</v>
       </c>
@@ -11794,8 +15084,26 @@
       <c r="T183" s="3">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U183">
+        <v>231.27</v>
+      </c>
+      <c r="V183">
+        <v>378.1</v>
+      </c>
+      <c r="W183">
+        <v>451.93</v>
+      </c>
+      <c r="X183">
+        <v>537.59</v>
+      </c>
+      <c r="Y183">
+        <v>115.39</v>
+      </c>
+      <c r="Z183">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="184" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>45634</v>
       </c>
@@ -11856,8 +15164,26 @@
       <c r="T184" s="3">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U184">
+        <v>249.21</v>
+      </c>
+      <c r="V184">
+        <v>371.58</v>
+      </c>
+      <c r="W184">
+        <v>436.02</v>
+      </c>
+      <c r="X184">
+        <v>554.1</v>
+      </c>
+      <c r="Y184">
+        <v>96</v>
+      </c>
+      <c r="Z184">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="185" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
         <v>45636</v>
       </c>
@@ -11918,8 +15244,26 @@
       <c r="T185" s="3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U185">
+        <v>232.9</v>
+      </c>
+      <c r="V185">
+        <v>375.86</v>
+      </c>
+      <c r="W185">
+        <v>444.59</v>
+      </c>
+      <c r="X185">
+        <v>545.54</v>
+      </c>
+      <c r="Y185">
+        <v>103.46</v>
+      </c>
+      <c r="Z185">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="186" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>45638</v>
       </c>
@@ -11980,8 +15324,26 @@
       <c r="T186" s="3">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U186">
+        <v>241.06</v>
+      </c>
+      <c r="V186">
+        <v>380.55</v>
+      </c>
+      <c r="W186">
+        <v>468.25</v>
+      </c>
+      <c r="X186">
+        <v>549.01</v>
+      </c>
+      <c r="Y186">
+        <v>98</v>
+      </c>
+      <c r="Z186">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="187" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
         <v>45640</v>
       </c>
@@ -12042,8 +15404,26 @@
       <c r="T187" s="3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U187">
+        <v>210.87</v>
+      </c>
+      <c r="V187">
+        <v>374.64</v>
+      </c>
+      <c r="W187">
+        <v>482.52</v>
+      </c>
+      <c r="X187">
+        <v>565.32000000000005</v>
+      </c>
+      <c r="Y187">
+        <v>90.22</v>
+      </c>
+      <c r="Z187">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="188" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <v>45642</v>
       </c>
@@ -12104,8 +15484,26 @@
       <c r="T188" s="3">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U188">
+        <v>215.36</v>
+      </c>
+      <c r="V188">
+        <v>371.37</v>
+      </c>
+      <c r="W188">
+        <v>441.73</v>
+      </c>
+      <c r="X188">
+        <v>538.75081521739128</v>
+      </c>
+      <c r="Y188">
+        <v>107.35</v>
+      </c>
+      <c r="Z188">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="189" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
         <v>45644</v>
       </c>
@@ -12166,8 +15564,26 @@
       <c r="T189" s="3">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U189">
+        <v>248.81</v>
+      </c>
+      <c r="V189">
+        <v>381.78</v>
+      </c>
+      <c r="W189">
+        <v>458.05</v>
+      </c>
+      <c r="X189">
+        <v>538.75081521739128</v>
+      </c>
+      <c r="Y189">
+        <v>100.76</v>
+      </c>
+      <c r="Z189">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="190" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
         <v>45646</v>
       </c>
@@ -12228,8 +15644,26 @@
       <c r="T190" s="3">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U190">
+        <v>237.39</v>
+      </c>
+      <c r="V190">
+        <v>397.28</v>
+      </c>
+      <c r="W190">
+        <v>451.93</v>
+      </c>
+      <c r="X190">
+        <v>538.75081521739128</v>
+      </c>
+      <c r="Y190">
+        <v>95.89</v>
+      </c>
+      <c r="Z190">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="191" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
         <v>45648</v>
       </c>
@@ -12290,8 +15724,26 @@
       <c r="T191" s="3">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U191">
+        <v>221.89</v>
+      </c>
+      <c r="V191">
+        <v>389.53</v>
+      </c>
+      <c r="W191">
+        <v>459.68</v>
+      </c>
+      <c r="X191">
+        <v>538.75081521739128</v>
+      </c>
+      <c r="Y191">
+        <v>96.46</v>
+      </c>
+      <c r="Z191">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="192" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <v>45650</v>
       </c>
@@ -12352,8 +15804,26 @@
       <c r="T192" s="3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U192">
+        <v>233.31</v>
+      </c>
+      <c r="V192">
+        <v>376.27</v>
+      </c>
+      <c r="W192">
+        <v>447.85</v>
+      </c>
+      <c r="X192">
+        <v>538.75081521739128</v>
+      </c>
+      <c r="Y192">
+        <v>107.08</v>
+      </c>
+      <c r="Z192">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="193" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
         <v>45652</v>
       </c>
@@ -12414,8 +15884,26 @@
       <c r="T193" s="3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U193">
+        <v>228.82</v>
+      </c>
+      <c r="V193">
+        <v>373.21</v>
+      </c>
+      <c r="W193">
+        <v>455.6</v>
+      </c>
+      <c r="X193">
+        <v>538.75081521739128</v>
+      </c>
+      <c r="Y193">
+        <v>85</v>
+      </c>
+      <c r="Z193">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="194" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>45654</v>
       </c>
@@ -12476,8 +15964,26 @@
       <c r="T194" s="3">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U194">
+        <v>235.75</v>
+      </c>
+      <c r="V194">
+        <v>398.5</v>
+      </c>
+      <c r="W194">
+        <v>441.73</v>
+      </c>
+      <c r="X194">
+        <v>538.75081521739128</v>
+      </c>
+      <c r="Y194">
+        <v>98.82</v>
+      </c>
+      <c r="Z194">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="195" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <v>45656</v>
       </c>
@@ -12538,8 +16044,26 @@
       <c r="T195" s="3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U195">
+        <v>237.79</v>
+      </c>
+      <c r="V195">
+        <v>386.26</v>
+      </c>
+      <c r="W195">
+        <v>452.34</v>
+      </c>
+      <c r="X195">
+        <v>538.75081521739128</v>
+      </c>
+      <c r="Y195">
+        <v>98.85</v>
+      </c>
+      <c r="Z195">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="196" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
         <v>45657</v>
       </c>
@@ -12599,6 +16123,24 @@
       </c>
       <c r="T196" s="3">
         <v>0.42</v>
+      </c>
+      <c r="U196">
+        <v>221.48</v>
+      </c>
+      <c r="V196">
+        <v>363.83</v>
+      </c>
+      <c r="W196">
+        <v>430.58172774869109</v>
+      </c>
+      <c r="X196">
+        <v>538.75081521739128</v>
+      </c>
+      <c r="Y196">
+        <v>98.86</v>
+      </c>
+      <c r="Z196">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
